--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -643,6 +643,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -717,6 +733,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
         <v/>
       </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -789,6 +821,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
         <v/>
       </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -861,6 +909,22 @@
       </c>
       <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -640,23 +640,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -730,23 +730,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -818,23 +818,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -655,9 +655,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -745,9 +746,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -833,9 +835,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -923,9 +926,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,29 +636,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx, "A 30234-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -671,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,29 +726,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx, "A 33548-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -762,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,29 +814,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx, "A 33550-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</t>
-        </is>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -851,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,29 +904,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx, "A 30241-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</t>
-        </is>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -942,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1056,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1118,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1175,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1237,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1299,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1356,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1413,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1475,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1537,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1594,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1651,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1708,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1770,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1827,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1889,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1946,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2003,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2060,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2117,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2179,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2241,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2303,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2365,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2484,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2541,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2598,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2660,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2717,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2841,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2903,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2960,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3017,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3074,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3131,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3193,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3250,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3307,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3364,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3426,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3483,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3540,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3597,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3659,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3716,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3773,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3830,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3892,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3949,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4011,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4073,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4135,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4197,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4254,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4311,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4373,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4430,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4487,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4544,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4606,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4668,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4725,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4782,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4844,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4901,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4958,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5015,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5072,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5134,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5196,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5253,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5310,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5367,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5424,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5481,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5538,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5595,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5652,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5709,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5766,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5823,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5880,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5937,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5994,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6051,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6108,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6165,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6222,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6284,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6341,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6403,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6465,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6522,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6584,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6646,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6708,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6765,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6827,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6884,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6941,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7003,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7065,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7127,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7189,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7251,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7313,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7375,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7432,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7494,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7551,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7608,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7670,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7727,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7784,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7841,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7903,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7965,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8027,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8084,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8141,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8198,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8255,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8312,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8374,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8436,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8493,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8550,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8612,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8674,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8736,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8793,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8855,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8912,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8969,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9026,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9088,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9145,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9202,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9264,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9326,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9388,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9450,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9507,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9564,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9621,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9683,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9745,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9859,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9921,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9978,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10035,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10097,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10154,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10216,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10273,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10330,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10387,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10444,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10501,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10558,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10615,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10672,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10729,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10786,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx, "A 30234-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx, "A 33548-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx, "A 33550-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx, "A 30241-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023 artfynd.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023.png", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023 karta.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 fsc-klagomål.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 fsc-klagomål mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023 tillsynsbegäran.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023 artfynd.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023.png", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023 karta.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 fsc-klagomål.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 fsc-klagomål mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023 tillsynsbegäran.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023 artfynd.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023.png", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023 karta.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 fsc-klagomål.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 fsc-klagomål mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023 tillsynsbegäran.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023 artfynd.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023.png", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023 karta.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 fsc-klagomål.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 fsc-klagomål mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023 tillsynsbegäran.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -644,11 +644,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 fsc-klagomål.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 FSC-klagomål.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 fsc-klagomål mail.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 FSC-klagomål mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -656,7 +656,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -734,11 +734,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 fsc-klagomål.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 FSC-klagomål.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 fsc-klagomål mail.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 FSC-klagomål mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -746,7 +746,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -822,11 +822,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 fsc-klagomål.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 FSC-klagomål.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 fsc-klagomål mail.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 FSC-klagomål mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -834,7 +834,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -912,11 +912,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 fsc-klagomål.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 FSC-klagomål.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 fsc-klagomål mail.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 FSC-klagomål mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -924,7 +924,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
+++ b/Logging_DALARNAS_LAN/Översikt DALARNAS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45108</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         <v>45109</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45109</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>45110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45110</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45110</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45110</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45112</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45112</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>45112</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45112</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45112</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45112</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45112</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45112</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45112</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45112</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45112</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45112</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45113</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>45113</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>45113</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>45113</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45113</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>45113</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>45113</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>45113</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>45113</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         <v>45114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>45114</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>45114</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>45114</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45114</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>45114</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45114</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>45114</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45114</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>45114</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45114</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>45114</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45114</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45114</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>45114</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45114</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45116</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>45117</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45117</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>45117</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45117</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>45117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45118</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45118</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45118</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>45118</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45118</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45118</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45118</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45119</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>45119</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>45119</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45119</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45119</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>45120</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>45120</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45120</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45120</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45120</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>45121</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45121</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45121</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45121</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>45121</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45121</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45123</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45123</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45124</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45124</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45126</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45126</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45127</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45127</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>45127</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45127</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>45127</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45127</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45127</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>45127</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         <v>45127</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45127</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>45127</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>45128</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45128</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45131</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45131</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45131</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45131</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45131</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         <v>45131</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45131</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45131</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45131</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45132</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45132</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45134</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45134</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45134</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45134</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         <v>45135</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>45138</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>45138</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>45138</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
